--- a/학생경력정보.xlsx
+++ b/학생경력정보.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018112277\소프트웨어 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E4259-17F7-49FE-ABF6-44B639658169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669798C5-6160-480E-92AC-C6D329A81B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{EE436D71-2738-4BD0-9F81-882763FEF2F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EE436D71-2738-4BD0-9F81-882763FEF2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>000902</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>75/150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,15 +256,98 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017091283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019123943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017194324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018123432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015120495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015102394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014203942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019012394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018129402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>981230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">75/150 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,12 +395,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,17 +720,19 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="8.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.69921875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.3984375" collapsed="true"/>
+    <col min="4" max="14" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -659,102 +740,102 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2017091283</v>
-      </c>
-      <c r="C2" s="1">
-        <v>981230</v>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2019123943</v>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>2017194324</v>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2018123432</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2015102394</v>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>950306</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2014203942</v>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>2015120495</v>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>2019012394</v>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2018129402</v>
-      </c>
-      <c r="C10" s="1">
-        <v>990601</v>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -768,285 +849,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A1874B-D6DB-4688-B498-5B5F73B8EC03}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="8.59765625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="3" max="15" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81FF0B-13B8-44B8-AD98-1985B9C61BB5}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="14.3984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.8984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="5.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="12.8984375" collapsed="true"/>
+    <col min="5" max="6" style="3" width="8.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.09765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="16.296875" collapsed="true"/>
+    <col min="11" max="17" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3">
-        <v>500</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,142 +1178,144 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="15.8984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.09765625" collapsed="true"/>
+    <col min="3" max="4" style="3" width="8.796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.09765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="13.8984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.3984375" collapsed="true"/>
+    <col min="11" max="18" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="E2" s="4">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>750</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3">
-        <v>750</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,140 +1328,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1382914-2737-4713-AE57-A7CE80E73CB0}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="7" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.8984375" collapsed="true"/>
+    <col min="3" max="4" style="3" width="8.796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="13.3984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="12.69921875" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.3984375" collapsed="true"/>
+    <col min="11" max="17" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="4">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>800</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3">
-        <v>800</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>4</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1353,136 +1476,139 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="14.09765625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.8984375" collapsed="true"/>
+    <col min="3" max="4" style="3" width="8.796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="12.5" collapsed="true"/>
+    <col min="6" max="7" style="3" width="8.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="14.69921875" collapsed="true"/>
+    <col min="10" max="21" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="E2" s="4">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>750</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>750</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,65 +1621,67 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="11.296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="3" max="6" style="3" width="8.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="19" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1567,64 +1695,67 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="8.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="3" max="6" style="3" width="8.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="15" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1638,64 +1769,67 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="8.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.8984375" collapsed="true"/>
+    <col min="3" max="6" style="3" width="8.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="13" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1709,114 +1843,116 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N1:N2"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" style="3" width="8.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="10.3984375" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="3" width="12.3984375" collapsed="true"/>
+    <col min="10" max="15" style="3" width="8.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/학생경력정보.xlsx
+++ b/학생경력정보.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
   <si>
     <t>000902</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1027,7 @@
         <v>70</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">

--- a/학생경력정보.xlsx
+++ b/학생경력정보.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21430F05-4C54-4F47-9A60-F33A9D63F802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
   <si>
     <t>000902</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,14 +321,18 @@
   </si>
   <si>
     <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,27 +696,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -720,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -731,7 +735,7 @@
         <v>981230</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -742,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -753,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -764,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -775,7 +779,7 @@
         <v>950306</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -786,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -797,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -808,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -827,20 +831,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -889,7 +893,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -923,7 +927,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -941,7 +945,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -957,7 +961,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -973,7 +977,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -989,7 +993,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1005,7 +1009,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1021,7 +1025,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1037,7 +1041,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1053,7 +1057,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1069,7 +1073,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1085,7 +1089,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1101,7 +1105,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1117,7 +1121,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1140,26 +1144,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1208,11 +1212,13 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
         <v>56</v>
@@ -1248,7 +1254,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1264,7 +1270,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1280,7 +1286,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1296,7 +1302,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1312,7 +1318,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1328,7 +1334,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1344,7 +1350,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1360,7 +1366,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1376,7 +1382,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1392,7 +1398,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1416,26 +1422,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" customWidth="1"/>
-    <col min="7" max="7" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.9140625" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1484,7 +1490,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1529,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1546,7 +1552,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1567,7 +1573,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1588,7 +1594,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1609,7 +1615,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1630,7 +1636,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1651,7 +1657,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1672,7 +1678,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1693,7 +1699,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1722,24 +1728,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="5" max="5" width="13.4140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +1794,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1835,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1873,7 +1879,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1894,7 +1900,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1915,7 +1921,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1933,7 +1939,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1951,7 +1957,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1969,7 +1975,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1987,7 +1993,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2005,7 +2011,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2030,23 +2036,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2101,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2139,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2160,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2173,7 +2179,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2192,7 +2198,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2211,7 +2217,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2230,7 +2236,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2249,7 +2255,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2268,7 +2274,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2287,7 +2293,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2306,7 +2312,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2325,7 +2331,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2344,7 +2350,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2363,7 +2369,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2382,7 +2388,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2401,7 +2407,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2420,7 +2426,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2446,22 +2452,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -2510,7 +2516,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -2544,7 +2550,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2563,7 +2569,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2582,7 +2588,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2601,7 +2607,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2620,7 +2626,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2639,7 +2645,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2658,7 +2664,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2677,7 +2683,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2696,7 +2702,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2715,7 +2721,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2734,7 +2740,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2753,7 +2759,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2772,7 +2778,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2798,21 +2804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2867,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2901,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2912,7 +2918,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2929,7 +2935,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2946,7 +2952,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2963,7 +2969,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2980,7 +2986,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2997,7 +3003,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3014,7 +3020,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3031,7 +3037,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3048,7 +3054,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3065,7 +3071,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3082,7 +3088,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3106,21 +3112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -3169,7 +3175,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3209,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3220,7 +3226,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3237,7 +3243,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3254,7 +3260,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3271,7 +3277,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3288,7 +3294,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3305,7 +3311,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3322,7 +3328,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3339,7 +3345,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3356,7 +3362,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3373,7 +3379,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3390,7 +3396,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3414,20 +3420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3482,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -3510,7 +3516,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3546,7 +3552,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3562,7 +3568,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3578,7 +3584,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3594,7 +3600,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3610,7 +3616,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3626,7 +3632,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3642,7 +3648,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3658,7 +3664,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>

--- a/학생경력정보.xlsx
+++ b/학생경력정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21430F05-4C54-4F47-9A60-F33A9D63F802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15150E74-21D5-42D4-A1B8-0BA2DB3B6BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
   <si>
     <t>000902</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,11 +260,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,59 +296,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학실험1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초창의공학설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합설계프로젝트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합설계프로젝트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공기반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -502,7 +558,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -898,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -907,19 +963,19 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -1145,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1217,34 +1273,40 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>33</v>
@@ -1266,9 +1328,15 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="L3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -1282,9 +1350,15 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="L4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -1298,9 +1372,15 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
@@ -1314,9 +1394,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -1330,9 +1416,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
@@ -1346,9 +1438,15 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="L8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -1362,9 +1460,15 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="L9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -1378,9 +1482,15 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="L10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -1394,9 +1504,15 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -1410,9 +1526,75 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="L12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1799,35 +1981,35 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -2106,32 +2288,32 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
@@ -2521,7 +2703,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2530,19 +2712,19 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
@@ -2881,19 +3063,19 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
@@ -3180,7 +3362,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3189,19 +3371,19 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
@@ -3487,7 +3669,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3496,19 +3678,19 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>

--- a/학생경력정보.xlsx
+++ b/학생경력정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mook\IdeaProjects\FirstJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HyunSU\Documents\software_design-mook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15150E74-21D5-42D4-A1B8-0BA2DB3B6BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81521A-1D96-4033-94A4-13524AB5BE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1764" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t>000902</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,55 +320,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물리학1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리학실험1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이산수학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초창의공학설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영체제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합설계프로젝트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합설계프로젝트2</t>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김창묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asde130@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도/학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP200123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,7 +368,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>권현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6360879@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +395,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -422,12 +427,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,9 +454,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,7 +775,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -888,10 +900,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -943,18 +955,28 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -977,11 +999,24 @@
       <c r="M2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -1000,6 +1035,11 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -1016,6 +1056,11 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -1032,6 +1077,11 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -1048,6 +1098,11 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1064,6 +1119,11 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -1080,6 +1140,11 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -1096,6 +1161,11 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -1112,6 +1182,11 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -1128,6 +1203,11 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -1144,6 +1224,11 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -1160,6 +1245,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -1176,6 +1266,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
@@ -1192,9 +1287,25 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{0D3D5541-8786-469A-B8B9-BDA315B69A67}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1203,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1262,39 +1373,49 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>57</v>
@@ -1311,10 +1432,21 @@
       <c r="N2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -1328,15 +1460,14 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -1350,15 +1481,14 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -1372,15 +1502,14 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
@@ -1394,15 +1523,14 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
@@ -1416,15 +1544,14 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
@@ -1438,15 +1565,14 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -1460,15 +1586,14 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -1482,15 +1607,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -1504,15 +1628,14 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -1526,15 +1649,14 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C13" s="4"/>
@@ -1546,15 +1668,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C14" s="4"/>
@@ -1566,15 +1687,14 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C15" s="4"/>
@@ -1586,29 +1706,26 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{044B391A-2379-4872-9075-104E7A520EC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S13" sqref="M1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1666,11 +1783,21 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1704,12 +1831,24 @@
       <c r="M2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -1902,19 +2041,40 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{D26A2F67-7E38-4686-AF57-F385C0D28F66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S13" sqref="L1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1925,6 +2085,9 @@
     <col min="6" max="6" width="12.69921875" customWidth="1"/>
     <col min="7" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.296875" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" customWidth="1"/>
+    <col min="19" max="19" width="24.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
@@ -1970,25 +2133,35 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2003,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>57</v>
@@ -2011,11 +2184,21 @@
       <c r="N2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
+      <c r="O2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20192</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -2120,6 +2303,9 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -2138,6 +2324,9 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -2156,6 +2345,9 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -2174,6 +2366,9 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -2192,6 +2387,9 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -2210,10 +2408,55 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="15:16" x14ac:dyDescent="0.4">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.4">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.4">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="15:16" x14ac:dyDescent="0.4">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{9DD34683-796A-40AB-8EFF-7E1070EA769A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2221,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S14" sqref="N1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2277,25 +2520,35 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2315,11 +2568,24 @@
       <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -2341,6 +2607,8 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -2360,6 +2628,8 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -2379,6 +2649,8 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -2398,6 +2670,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -2417,6 +2691,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -2436,6 +2712,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -2455,6 +2733,8 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -2474,6 +2754,8 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -2493,6 +2775,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -2512,6 +2796,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -2531,6 +2817,8 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -2550,6 +2838,8 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
@@ -2629,6 +2919,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{36417226-59A5-49E9-A6AF-AEE3F79E10A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2637,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S14" sqref="N1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2692,18 +2985,28 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2726,11 +3029,24 @@
       <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -2750,6 +3066,8 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -2769,6 +3087,8 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -2788,6 +3108,8 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -2807,6 +3129,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -2826,6 +3150,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -2845,6 +3171,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -2864,6 +3192,8 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -2883,6 +3213,8 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -2902,6 +3234,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -2921,6 +3255,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -2940,6 +3276,8 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -2959,6 +3297,8 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
@@ -2981,6 +3321,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{43037224-9A75-414F-A272-49EE3B57934C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2989,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S14" sqref="M1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3043,11 +3386,21 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -3077,11 +3430,24 @@
       <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3099,6 +3465,10 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -3116,6 +3486,10 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -3133,6 +3507,10 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -3150,6 +3528,10 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -3167,6 +3549,10 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -3184,6 +3570,10 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -3201,6 +3591,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -3218,6 +3612,10 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -3235,6 +3633,10 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -3252,6 +3654,10 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -3269,6 +3675,10 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -3286,19 +3696,26 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{36C9EEF1-3244-470B-90BB-9B46254BA507}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S15" sqref="N1:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3351,18 +3768,28 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3385,11 +3812,24 @@
       <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3407,6 +3847,10 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -3424,6 +3868,10 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -3441,6 +3889,10 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -3458,6 +3910,10 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -3475,6 +3931,10 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -3492,6 +3952,10 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -3509,6 +3973,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -3526,6 +3994,10 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -3543,6 +4015,10 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -3560,6 +4036,10 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -3577,6 +4057,10 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -3594,19 +4078,34 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{391B6724-95F6-475A-A6B5-5EC32A9E1813}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S14" sqref="M1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3658,18 +4157,28 @@
       <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3692,11 +4201,24 @@
       <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>20191</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -3715,7 +4237,11 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -3732,7 +4258,11 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -3749,6 +4279,11 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
@@ -3765,6 +4300,11 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -3781,6 +4321,11 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -3797,6 +4342,11 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -3813,6 +4363,11 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
@@ -3829,6 +4384,11 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
@@ -3845,6 +4405,11 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -3861,10 +4426,36 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{ECAF6AAF-7E21-4E26-BC87-94B6FC9FF989}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>